--- a/data/evaluation/evaluation_North_Winter_Grapefruits.xlsx
+++ b/data/evaluation/evaluation_North_Winter_Grapefruits.xlsx
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2492.889828414924</v>
+        <v>2500.898757086899</v>
       </c>
       <c r="C4" t="n">
-        <v>9986799.681878742</v>
+        <v>10121820.08244868</v>
       </c>
       <c r="D4" t="n">
-        <v>3160.189817381029</v>
+        <v>3181.480800264034</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1690496959519554</v>
+        <v>0.1578153419566652</v>
       </c>
     </row>
     <row r="5">
